--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -5,18 +5,60 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Reembolso" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>teste1</t>
-  </si>
-  <si>
-    <t>teste2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Data inicio</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>Data fim</t>
+  </si>
+  <si>
+    <t>Destino</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>Centro de custo</t>
+  </si>
+  <si>
+    <t>Diretoria</t>
+  </si>
+  <si>
+    <t>Solicitante</t>
+  </si>
+  <si>
+    <t>Breno Queiroz</t>
+  </si>
+  <si>
+    <t>Natureza</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Nota fiscal</t>
+  </si>
+  <si>
+    <t>Almoço</t>
+  </si>
+  <si>
+    <t>https://scontent-ort2-2.xx.fbcdn.net/v/t34.0-12/26856277_320942225085467_1983287614_n.jpg?_nc_ad=z-m&amp;_nc_cid=0&amp;oh=ec841594be9c9f6a39b9d66439f5b1b9&amp;oe=5A5AF6AE</t>
+  </si>
+  <si>
+    <t>https://scontent-ort2-2.xx.fbcdn.net/v/t34.0-12/26857098_320945675085122_1531613822_n.jpg?_nc_ad=z-m&amp;_nc_cid=0&amp;oh=18ed69affec5f99dca0402ff10cc5921&amp;oe=5A5AD0A1</t>
+  </si>
+  <si>
+    <t>https://scontent-ort2-2.xx.fbcdn.net/v/t34.0-12/26803134_320946385085051_1253998410_n.jpg?_nc_ad=z-m&amp;_nc_cid=0&amp;oh=66b0209d2e4dae60cda7d062629e6d71&amp;oe=5A5AE5DF</t>
   </si>
 </sst>
 </file>
@@ -24,9 +66,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt formatCode="$#,##0.00; ($#,##0.00); -" numFmtId="164"/>
+    <numFmt formatCode="R$#,##0.00; (R$#,##0.00); -" numFmtId="164"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -34,8 +76,15 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <b/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color rgb="FFFF0800"/>
+      <color rgb="FF212121"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -57,9 +106,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf applyFont="1" fontId="0"/>
-    <xf applyFont="1" fontId="1" applyNumberFormat="1" numFmtId="164"/>
+    <xf applyFont="1" fontId="1"/>
+    <xf applyFont="1" fontId="2"/>
+    <xf applyFont="1" fontId="2" applyNumberFormat="1" numFmtId="164"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -67,7 +118,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -78,7 +129,77 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="6:6">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="7:7">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
